--- a/SauceDemo/target/classes/DatosEntrada.xlsx
+++ b/SauceDemo/target/classes/DatosEntrada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-workspace\SauceDemo\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1692C96-1FBD-4396-A20E-FA52304D3F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68177333-F4CD-43DE-B521-6E3D8D3F83A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="2280" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>armando</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>maria</t>
+  </si>
+  <si>
+    <t>jose</t>
   </si>
   <si>
     <t>lugo</t>
@@ -403,7 +406,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +454,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -463,7 +466,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>10014</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -494,7 +497,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>12001</v>
